--- a/Campaign Performance.xlsx
+++ b/Campaign Performance.xlsx
@@ -5,10 +5,10 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RITU PRIYA SINGH\Desktop\Assgn\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RITU PRIYA SINGH\Documents\GitHub\Google-Ads-Data-Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CCDE892-E533-485E-8ED4-C7F9C1508F6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4035F561-5233-4422-B618-FE56AF7A128A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="1" activeTab="1" xr2:uid="{18AE628F-736A-47D0-A67B-349B3437A590}"/>
   </bookViews>
@@ -23,25 +23,25 @@
     <sheet name="CTR" sheetId="3" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlcn.WorksheetConnection_CampaignPerformance.xlsxCampaign_Report_ND" hidden="1">Campaign_Report_ND[]</definedName>
-    <definedName name="_xlcn.WorksheetConnection_DataAO" hidden="1">Data!$A:$N</definedName>
+    <definedName name="_xlcn.WorksheetConnection_CampaignPerformance.xlsxCampaign_Report_ND1" hidden="1">Campaign_Report_ND[]</definedName>
+    <definedName name="_xlcn.WorksheetConnection_DataAO1" hidden="1">Data!$A:$N</definedName>
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">Data!$A$1:$N$15</definedName>
     <definedName name="Slicer_Bid_strategy_type">#N/A</definedName>
     <definedName name="Slicer_Campaign">#N/A</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId9"/>
-    <pivotCache cacheId="1" r:id="rId10"/>
-    <pivotCache cacheId="2" r:id="rId11"/>
-    <pivotCache cacheId="3" r:id="rId12"/>
-    <pivotCache cacheId="4" r:id="rId13"/>
-    <pivotCache cacheId="5" r:id="rId14"/>
+    <pivotCache cacheId="325" r:id="rId9"/>
+    <pivotCache cacheId="326" r:id="rId10"/>
+    <pivotCache cacheId="327" r:id="rId11"/>
+    <pivotCache cacheId="328" r:id="rId12"/>
+    <pivotCache cacheId="329" r:id="rId13"/>
+    <pivotCache cacheId="330" r:id="rId14"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{876F7934-8845-4945-9796-88D515C7AA90}">
       <x14:pivotCaches>
-        <pivotCache cacheId="6" r:id="rId15"/>
+        <pivotCache cacheId="331" r:id="rId15"/>
       </x14:pivotCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -97,7 +97,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Campaign_Report_ND" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_CampaignPerformance.xlsxCampaign_Report_ND"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_CampaignPerformance.xlsxCampaign_Report_ND1"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -106,7 +106,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Range" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_DataAO"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_DataAO1"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -1795,6 +1795,223 @@
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="5"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:tint val="54000"/>
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:tint val="54000"/>
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:tint val="54000"/>
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:shade val="53000"/>
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:shade val="53000"/>
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:shade val="53000"/>
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:shade val="76000"/>
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:shade val="76000"/>
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:shade val="76000"/>
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:tint val="77000"/>
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:tint val="77000"/>
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:tint val="77000"/>
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
         <c:spPr>
           <a:gradFill rotWithShape="1">
             <a:gsLst>
@@ -3330,6 +3547,221 @@
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="6"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:tint val="30000"/>
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:tint val="30000"/>
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:tint val="30000"/>
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln/>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:shade val="58000"/>
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:shade val="58000"/>
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:shade val="58000"/>
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln/>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:shade val="86000"/>
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:shade val="86000"/>
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:shade val="86000"/>
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln/>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:tint val="86000"/>
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:tint val="86000"/>
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:tint val="86000"/>
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln/>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:tint val="58000"/>
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:tint val="58000"/>
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:tint val="58000"/>
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln/>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
         <c:spPr>
           <a:gradFill rotWithShape="1">
             <a:gsLst>
@@ -18332,9 +18764,10 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="3200" b="1">
               <a:latin typeface="ADLaM Display" panose="020F0502020204030204" pitchFamily="2" charset="0"/>
@@ -20744,7 +21177,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{257D502D-0B64-4955-BD3D-F81B79D2F18D}" name="PivotTable5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{257D502D-0B64-4955-BD3D-F81B79D2F18D}" name="PivotTable5" cacheId="326" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
   <location ref="A1:D8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -20931,7 +21364,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{10773B9D-0EA4-43B3-B2EA-84304D34BFF5}" name="PivotTable6" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{10773B9D-0EA4-43B3-B2EA-84304D34BFF5}" name="PivotTable6" cacheId="330" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
   <location ref="A1:D8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -21117,7 +21550,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{66E6E0D2-8217-4071-860D-4F20DA25AF18}" name="PivotTable2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{66E6E0D2-8217-4071-860D-4F20DA25AF18}" name="PivotTable2" cacheId="327" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
   <location ref="A3:D10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisCol" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -21304,7 +21737,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3315FF70-932D-40B5-83C5-92634378D358}" name="PivotTable4" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3315FF70-932D-40B5-83C5-92634378D358}" name="PivotTable4" cacheId="329" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
   <location ref="A1:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -21501,7 +21934,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D540D569-106B-4EB3-B146-425B5AF44C32}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D540D569-106B-4EB3-B146-425B5AF44C32}" name="PivotTable1" cacheId="325" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
   <location ref="A3:D10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField axis="axisCol" showAll="0">
@@ -21646,7 +22079,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BB5D19BF-026A-4658-8928-180D3B4AA50A}" name="PivotTable3" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BB5D19BF-026A-4658-8928-180D3B4AA50A}" name="PivotTable3" cacheId="328" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
   <location ref="A1:D8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisCol" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
